--- a/config_12.15/shoping_config.xlsx
+++ b/config_12.15/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3967" uniqueCount="1787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4016" uniqueCount="1787">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -10587,13 +10587,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM488"/>
+  <dimension ref="A1:AM492"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="X478" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AN1" sqref="AN1:AN1048576"/>
+      <selection pane="bottomRight" activeCell="X486" sqref="X486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -41445,10 +41445,460 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:38" s="5" customFormat="1"/>
-    <row r="487" spans="1:38" s="5" customFormat="1"/>
-    <row r="488" spans="1:38" s="5" customFormat="1">
-      <c r="Q488" s="10"/>
+    <row r="486" spans="1:38" s="19" customFormat="1" ht="14.25">
+      <c r="A486" s="19">
+        <v>485</v>
+      </c>
+      <c r="B486" s="19">
+        <v>10402</v>
+      </c>
+      <c r="F486" s="19">
+        <v>1</v>
+      </c>
+      <c r="G486" s="19" t="s">
+        <v>1421</v>
+      </c>
+      <c r="H486" s="19" t="s">
+        <v>1559</v>
+      </c>
+      <c r="I486" s="19" t="s">
+        <v>1545</v>
+      </c>
+      <c r="K486" s="19">
+        <v>-31</v>
+      </c>
+      <c r="L486" s="19">
+        <v>0</v>
+      </c>
+      <c r="M486" s="19">
+        <v>0</v>
+      </c>
+      <c r="N486" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="O486" s="19">
+        <v>1800</v>
+      </c>
+      <c r="P486" s="19" t="s">
+        <v>1779</v>
+      </c>
+      <c r="Q486" s="39" t="s">
+        <v>1448</v>
+      </c>
+      <c r="V486" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="W486" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="X486" s="34">
+        <v>1607990400</v>
+      </c>
+      <c r="Y486" s="34">
+        <v>1608566399</v>
+      </c>
+      <c r="AG486" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH486" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK486" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL486" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:38" s="19" customFormat="1" ht="14.25">
+      <c r="A487" s="19">
+        <v>486</v>
+      </c>
+      <c r="B487" s="19">
+        <v>10403</v>
+      </c>
+      <c r="F487" s="19">
+        <v>1</v>
+      </c>
+      <c r="G487" s="19" t="s">
+        <v>1539</v>
+      </c>
+      <c r="H487" s="19" t="s">
+        <v>1559</v>
+      </c>
+      <c r="I487" s="19" t="s">
+        <v>1546</v>
+      </c>
+      <c r="K487" s="19">
+        <v>-31</v>
+      </c>
+      <c r="L487" s="19">
+        <v>0</v>
+      </c>
+      <c r="M487" s="19">
+        <v>0</v>
+      </c>
+      <c r="N487" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="O487" s="19">
+        <v>4800</v>
+      </c>
+      <c r="P487" s="19" t="s">
+        <v>1779</v>
+      </c>
+      <c r="Q487" s="39" t="s">
+        <v>1444</v>
+      </c>
+      <c r="V487" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="W487" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="X487" s="34">
+        <v>1607990400</v>
+      </c>
+      <c r="Y487" s="34">
+        <v>1608566399</v>
+      </c>
+      <c r="AG487" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH487" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK487" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL487" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:38" s="19" customFormat="1" ht="14.25">
+      <c r="A488" s="19">
+        <v>487</v>
+      </c>
+      <c r="B488" s="19">
+        <v>10404</v>
+      </c>
+      <c r="F488" s="19">
+        <v>1</v>
+      </c>
+      <c r="G488" s="19" t="s">
+        <v>1426</v>
+      </c>
+      <c r="H488" s="19" t="s">
+        <v>1559</v>
+      </c>
+      <c r="I488" s="19" t="s">
+        <v>1547</v>
+      </c>
+      <c r="K488" s="19">
+        <v>-31</v>
+      </c>
+      <c r="L488" s="19">
+        <v>0</v>
+      </c>
+      <c r="M488" s="19">
+        <v>0</v>
+      </c>
+      <c r="N488" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="O488" s="19">
+        <v>9800</v>
+      </c>
+      <c r="P488" s="19" t="s">
+        <v>1573</v>
+      </c>
+      <c r="Q488" s="39" t="s">
+        <v>1449</v>
+      </c>
+      <c r="V488" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="W488" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="X488" s="34">
+        <v>1607990400</v>
+      </c>
+      <c r="Y488" s="34">
+        <v>1608566399</v>
+      </c>
+      <c r="AG488" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH488" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK488" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL488" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:38" s="19" customFormat="1" ht="14.25">
+      <c r="A489" s="19">
+        <v>488</v>
+      </c>
+      <c r="B489" s="19">
+        <v>10405</v>
+      </c>
+      <c r="F489" s="19">
+        <v>1</v>
+      </c>
+      <c r="G489" s="19" t="s">
+        <v>1429</v>
+      </c>
+      <c r="H489" s="19" t="s">
+        <v>1559</v>
+      </c>
+      <c r="I489" s="19" t="s">
+        <v>1548</v>
+      </c>
+      <c r="K489" s="19">
+        <v>-31</v>
+      </c>
+      <c r="L489" s="19">
+        <v>0</v>
+      </c>
+      <c r="M489" s="19">
+        <v>0</v>
+      </c>
+      <c r="N489" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="O489" s="19">
+        <v>19800</v>
+      </c>
+      <c r="P489" s="19" t="s">
+        <v>1573</v>
+      </c>
+      <c r="Q489" s="39" t="s">
+        <v>1443</v>
+      </c>
+      <c r="V489" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="W489" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="X489" s="34">
+        <v>1607990400</v>
+      </c>
+      <c r="Y489" s="34">
+        <v>1608566399</v>
+      </c>
+      <c r="AG489" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH489" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK489" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL489" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:38" s="19" customFormat="1" ht="14.25">
+      <c r="A490" s="19">
+        <v>489</v>
+      </c>
+      <c r="B490" s="19">
+        <v>10406</v>
+      </c>
+      <c r="F490" s="19">
+        <v>1</v>
+      </c>
+      <c r="G490" s="19" t="s">
+        <v>1431</v>
+      </c>
+      <c r="H490" s="19" t="s">
+        <v>1559</v>
+      </c>
+      <c r="I490" s="19" t="s">
+        <v>1549</v>
+      </c>
+      <c r="K490" s="19">
+        <v>-31</v>
+      </c>
+      <c r="L490" s="19">
+        <v>0</v>
+      </c>
+      <c r="M490" s="19">
+        <v>0</v>
+      </c>
+      <c r="N490" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="O490" s="19">
+        <v>29800</v>
+      </c>
+      <c r="P490" s="19" t="s">
+        <v>1573</v>
+      </c>
+      <c r="Q490" s="39" t="s">
+        <v>1450</v>
+      </c>
+      <c r="V490" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="W490" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="X490" s="34">
+        <v>1607990400</v>
+      </c>
+      <c r="Y490" s="34">
+        <v>1608566399</v>
+      </c>
+      <c r="AG490" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH490" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK490" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL490" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:38" s="19" customFormat="1" ht="14.25">
+      <c r="A491" s="19">
+        <v>490</v>
+      </c>
+      <c r="B491" s="19">
+        <v>10407</v>
+      </c>
+      <c r="F491" s="19">
+        <v>1</v>
+      </c>
+      <c r="G491" s="19" t="s">
+        <v>1432</v>
+      </c>
+      <c r="H491" s="19" t="s">
+        <v>1559</v>
+      </c>
+      <c r="I491" s="19" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K491" s="19">
+        <v>-31</v>
+      </c>
+      <c r="L491" s="19">
+        <v>0</v>
+      </c>
+      <c r="M491" s="19">
+        <v>0</v>
+      </c>
+      <c r="N491" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="O491" s="19">
+        <v>49800</v>
+      </c>
+      <c r="P491" s="19" t="s">
+        <v>1781</v>
+      </c>
+      <c r="Q491" s="39" t="s">
+        <v>1445</v>
+      </c>
+      <c r="V491" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="W491" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="X491" s="34">
+        <v>1607990400</v>
+      </c>
+      <c r="Y491" s="34">
+        <v>1608566399</v>
+      </c>
+      <c r="AG491" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH491" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK491" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL491" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:38" s="19" customFormat="1" ht="14.25">
+      <c r="A492" s="19">
+        <v>491</v>
+      </c>
+      <c r="B492" s="19">
+        <v>10408</v>
+      </c>
+      <c r="F492" s="19">
+        <v>1</v>
+      </c>
+      <c r="G492" s="19" t="s">
+        <v>1434</v>
+      </c>
+      <c r="H492" s="19" t="s">
+        <v>1559</v>
+      </c>
+      <c r="I492" s="19" t="s">
+        <v>1551</v>
+      </c>
+      <c r="K492" s="19">
+        <v>-31</v>
+      </c>
+      <c r="L492" s="19">
+        <v>0</v>
+      </c>
+      <c r="M492" s="19">
+        <v>0</v>
+      </c>
+      <c r="N492" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="O492" s="19">
+        <v>99800</v>
+      </c>
+      <c r="P492" s="19" t="s">
+        <v>1781</v>
+      </c>
+      <c r="Q492" s="39" t="s">
+        <v>1446</v>
+      </c>
+      <c r="V492" s="19" t="s">
+        <v>595</v>
+      </c>
+      <c r="W492" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="X492" s="34">
+        <v>1607990400</v>
+      </c>
+      <c r="Y492" s="34">
+        <v>1608566399</v>
+      </c>
+      <c r="AG492" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH492" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK492" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL492" s="19">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/config_12.15/shoping_config.xlsx
+++ b/config_12.15/shoping_config.xlsx
@@ -10590,10 +10590,10 @@
   <dimension ref="A1:AM492"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="X478" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H478" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X486" sqref="X486"/>
+      <selection pane="bottomRight" activeCell="G486" sqref="G486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -16402,7 +16402,7 @@
         <v>1588644000</v>
       </c>
       <c r="AD101" s="19">
-        <f t="shared" ref="AD101:AD108" si="0">24*60*60</f>
+        <f>24*60*60</f>
         <v>86400</v>
       </c>
       <c r="AE101" s="19">
@@ -16465,7 +16465,7 @@
         <v>1588644000</v>
       </c>
       <c r="AD102" s="19">
-        <f t="shared" si="0"/>
+        <f>24*60*60</f>
         <v>86400</v>
       </c>
       <c r="AE102" s="19">
@@ -16528,7 +16528,7 @@
         <v>1588658400</v>
       </c>
       <c r="AD103" s="19">
-        <f t="shared" si="0"/>
+        <f>24*60*60</f>
         <v>86400</v>
       </c>
       <c r="AE103" s="19">
@@ -16591,7 +16591,7 @@
         <v>1588658400</v>
       </c>
       <c r="AD104" s="19">
-        <f t="shared" si="0"/>
+        <f>24*60*60</f>
         <v>86400</v>
       </c>
       <c r="AE104" s="19">
@@ -16654,7 +16654,7 @@
         <v>1588658400</v>
       </c>
       <c r="AD105" s="19">
-        <f t="shared" si="0"/>
+        <f>24*60*60</f>
         <v>86400</v>
       </c>
       <c r="AE105" s="19">
@@ -16717,7 +16717,7 @@
         <v>1588687200</v>
       </c>
       <c r="AD106" s="19">
-        <f t="shared" si="0"/>
+        <f>24*60*60</f>
         <v>86400</v>
       </c>
       <c r="AE106" s="19">
@@ -16780,7 +16780,7 @@
         <v>1588687200</v>
       </c>
       <c r="AD107" s="19">
-        <f t="shared" si="0"/>
+        <f>24*60*60</f>
         <v>86400</v>
       </c>
       <c r="AE107" s="19">
@@ -16843,7 +16843,7 @@
         <v>1588687200</v>
       </c>
       <c r="AD108" s="19">
-        <f t="shared" si="0"/>
+        <f>24*60*60</f>
         <v>86400</v>
       </c>
       <c r="AE108" s="19">
@@ -41456,7 +41456,7 @@
         <v>1</v>
       </c>
       <c r="G486" s="19" t="s">
-        <v>1421</v>
+        <v>1434</v>
       </c>
       <c r="H486" s="19" t="s">
         <v>1559</v>
@@ -41521,7 +41521,7 @@
         <v>1</v>
       </c>
       <c r="G487" s="19" t="s">
-        <v>1539</v>
+        <v>1432</v>
       </c>
       <c r="H487" s="19" t="s">
         <v>1559</v>
@@ -41586,7 +41586,7 @@
         <v>1</v>
       </c>
       <c r="G488" s="19" t="s">
-        <v>1426</v>
+        <v>1431</v>
       </c>
       <c r="H488" s="19" t="s">
         <v>1559</v>
@@ -41716,7 +41716,7 @@
         <v>1</v>
       </c>
       <c r="G490" s="19" t="s">
-        <v>1431</v>
+        <v>1426</v>
       </c>
       <c r="H490" s="19" t="s">
         <v>1559</v>
@@ -41781,7 +41781,7 @@
         <v>1</v>
       </c>
       <c r="G491" s="19" t="s">
-        <v>1432</v>
+        <v>1539</v>
       </c>
       <c r="H491" s="19" t="s">
         <v>1559</v>
@@ -41846,7 +41846,7 @@
         <v>1</v>
       </c>
       <c r="G492" s="19" t="s">
-        <v>1434</v>
+        <v>1421</v>
       </c>
       <c r="H492" s="19" t="s">
         <v>1559</v>

--- a/config_12.15/shoping_config.xlsx
+++ b/config_12.15/shoping_config.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4055" uniqueCount="1805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4055" uniqueCount="1827">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7801,6 +7801,94 @@
   </si>
   <si>
     <t>990万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加赠30万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加赠75万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加赠150万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加赠250万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加赠490万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加赠2490万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加赠5万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加赠50万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加赠75万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加赠5000万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加赠4990万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加赠12490万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加赠5万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加赠20万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加赠100万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加赠335万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加赠660万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加赠1020万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加赠5万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加赠50万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加赠5万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加赠990万金币</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -43051,7 +43139,7 @@
   <dimension ref="A1:AD27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:R25"/>
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -43218,7 +43306,7 @@
         <v>1771</v>
       </c>
       <c r="R2" s="33" t="s">
-        <v>1771</v>
+        <v>1805</v>
       </c>
       <c r="T2" s="33" t="s">
         <v>1029</v>
@@ -43289,7 +43377,7 @@
         <v>1772</v>
       </c>
       <c r="R3" s="33" t="s">
-        <v>1772</v>
+        <v>1806</v>
       </c>
       <c r="T3" s="33" t="s">
         <v>1029</v>
@@ -43360,7 +43448,7 @@
         <v>1773</v>
       </c>
       <c r="R4" s="33" t="s">
-        <v>1773</v>
+        <v>1807</v>
       </c>
       <c r="T4" s="33" t="s">
         <v>1030</v>
@@ -43431,7 +43519,7 @@
         <v>1774</v>
       </c>
       <c r="R5" s="33" t="s">
-        <v>1774</v>
+        <v>1808</v>
       </c>
       <c r="T5" s="33" t="s">
         <v>1030</v>
@@ -43502,7 +43590,7 @@
         <v>1775</v>
       </c>
       <c r="R6" s="33" t="s">
-        <v>1775</v>
+        <v>1809</v>
       </c>
       <c r="T6" s="33" t="s">
         <v>1030</v>
@@ -43573,7 +43661,7 @@
         <v>1776</v>
       </c>
       <c r="R7" s="33" t="s">
-        <v>1776</v>
+        <v>1810</v>
       </c>
       <c r="T7" s="33" t="s">
         <v>1030</v>
@@ -43639,7 +43727,7 @@
         <v>1789</v>
       </c>
       <c r="R8" s="33" t="s">
-        <v>1789</v>
+        <v>1811</v>
       </c>
       <c r="T8" s="33" t="s">
         <v>1031</v>
@@ -43705,7 +43793,7 @@
         <v>1790</v>
       </c>
       <c r="R9" s="33" t="s">
-        <v>1790</v>
+        <v>1808</v>
       </c>
       <c r="U9" s="11">
         <v>5000</v>
@@ -43771,7 +43859,7 @@
         <v>1791</v>
       </c>
       <c r="R10" s="33" t="s">
-        <v>1791</v>
+        <v>1812</v>
       </c>
       <c r="U10" s="11">
         <v>1000</v>
@@ -43837,7 +43925,7 @@
         <v>1793</v>
       </c>
       <c r="R11" s="33" t="s">
-        <v>1793</v>
+        <v>1813</v>
       </c>
       <c r="T11" s="33" t="s">
         <v>1032</v>
@@ -43908,7 +43996,7 @@
         <v>1792</v>
       </c>
       <c r="R12" s="33" t="s">
-        <v>1792</v>
+        <v>1814</v>
       </c>
       <c r="T12" s="33" t="s">
         <v>1030</v>
@@ -43979,7 +44067,7 @@
         <v>1794</v>
       </c>
       <c r="R13" s="33" t="s">
-        <v>1794</v>
+        <v>1815</v>
       </c>
       <c r="T13" s="33" t="s">
         <v>1032</v>
@@ -44050,7 +44138,7 @@
         <v>1795</v>
       </c>
       <c r="R14" s="33" t="s">
-        <v>1795</v>
+        <v>1816</v>
       </c>
       <c r="T14" s="33" t="s">
         <v>1033</v>
@@ -44119,7 +44207,7 @@
         <v>1789</v>
       </c>
       <c r="R15" s="33" t="s">
-        <v>1789</v>
+        <v>1817</v>
       </c>
       <c r="T15" s="33"/>
       <c r="U15" s="11">
@@ -44191,7 +44279,7 @@
         <v>1796</v>
       </c>
       <c r="R16" s="33" t="s">
-        <v>1796</v>
+        <v>1818</v>
       </c>
       <c r="T16" s="33" t="s">
         <v>1034</v>
@@ -44257,7 +44345,7 @@
         <v>1797</v>
       </c>
       <c r="R17" s="33" t="s">
-        <v>1797</v>
+        <v>1819</v>
       </c>
       <c r="T17" s="33" t="s">
         <v>1035</v>
@@ -44323,7 +44411,7 @@
         <v>1798</v>
       </c>
       <c r="R18" s="33" t="s">
-        <v>1798</v>
+        <v>1820</v>
       </c>
       <c r="T18" s="33" t="s">
         <v>1032</v>
@@ -44389,7 +44477,7 @@
         <v>1799</v>
       </c>
       <c r="R19" s="33" t="s">
-        <v>1799</v>
+        <v>1821</v>
       </c>
       <c r="T19" s="33" t="s">
         <v>1036</v>
@@ -44455,7 +44543,7 @@
         <v>1800</v>
       </c>
       <c r="R20" s="33" t="s">
-        <v>1800</v>
+        <v>1822</v>
       </c>
       <c r="T20" s="33" t="s">
         <v>1030</v>
@@ -44521,7 +44609,7 @@
         <v>1789</v>
       </c>
       <c r="R21" s="35" t="s">
-        <v>1789</v>
+        <v>1823</v>
       </c>
       <c r="T21" s="35" t="s">
         <v>1029</v>
@@ -44587,7 +44675,7 @@
         <v>1801</v>
       </c>
       <c r="R22" s="33" t="s">
-        <v>1801</v>
+        <v>1808</v>
       </c>
       <c r="T22" s="33"/>
       <c r="U22" s="11">
@@ -44651,7 +44739,7 @@
         <v>1802</v>
       </c>
       <c r="R23" s="33" t="s">
-        <v>1802</v>
+        <v>1824</v>
       </c>
       <c r="T23" s="33"/>
       <c r="U23" s="11">
@@ -44718,7 +44806,7 @@
         <v>1803</v>
       </c>
       <c r="R24" s="33" t="s">
-        <v>1803</v>
+        <v>1825</v>
       </c>
       <c r="T24" s="33"/>
       <c r="U24" s="11">
@@ -44790,7 +44878,7 @@
         <v>1804</v>
       </c>
       <c r="R25" s="33" t="s">
-        <v>1804</v>
+        <v>1826</v>
       </c>
       <c r="T25" s="33" t="s">
         <v>1037</v>
